--- a/common/Recall.xlsx
+++ b/common/Recall.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="28695" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>序号</t>
   </si>
@@ -32,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>id</t>
     </r>
     <r>
@@ -99,7 +106,7 @@
   </si>
   <si>
     <r>
-      <t>name</t>
+      <t>itemID</t>
     </r>
     <r>
       <rPr>
@@ -123,6 +130,31 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>memoryID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
     <t>城内</t>
   </si>
   <si>
@@ -164,9 +196,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -186,60 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,22 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -277,8 +240,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,15 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +301,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -323,7 +340,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +375,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,79 +396,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,103 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,17 +599,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,55 +638,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +661,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,12 +1179,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1199,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1207,16 +1233,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1224,16 +1250,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1241,16 +1267,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/common/Recall.xlsx
+++ b/common/Recall.xlsx
@@ -89,7 +89,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">transport
+      <t xml:space="preserve">transport 
 </t>
     </r>
     <r>
@@ -106,6 +106,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>itemID</t>
     </r>
     <r>
@@ -131,6 +138,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>memoryID</t>
     </r>
     <r>
@@ -198,8 +212,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -225,10 +239,41 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,8 +285,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -249,28 +331,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,84 +362,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,181 +410,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,6 +613,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -610,15 +648,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,9 +669,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,37 +702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,145 +718,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1198,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/common/Recall.xlsx
+++ b/common/Recall.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14685"/>
+    <workbookView windowWidth="28695" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,8 +89,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">transport 
-</t>
+      <t xml:space="preserve">transport </t>
     </r>
     <r>
       <rPr>
@@ -211,8 +210,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -286,14 +285,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +463,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,12 +584,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,7 +738,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,88 +774,88 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
